--- a/Project2/StudentEvaluation.xlsx
+++ b/Project2/StudentEvaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffrey Nieman\Documents\CUNY\Data 624\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMERO\Documents\GitHub\DATA624\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7253741B-C378-45FE-AE94-C02BE45F3208}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EA61DD-10CA-4EE2-92C5-A5A81444DCAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subset (2)" sheetId="1" r:id="rId1"/>
@@ -55,34 +55,7 @@
     <t>Carb Pressure1</t>
   </si>
   <si>
-    <t>Fill Pressure</t>
-  </si>
-  <si>
-    <t>Hyd Pressure1</t>
-  </si>
-  <si>
-    <t>Hyd Pressure2</t>
-  </si>
-  <si>
-    <t>Hyd Pressure3</t>
-  </si>
-  <si>
-    <t>Hyd Pressure4</t>
-  </si>
-  <si>
-    <t>Filler Level</t>
-  </si>
-  <si>
-    <t>Filler Speed</t>
-  </si>
-  <si>
     <t>Temperature</t>
-  </si>
-  <si>
-    <t>Usage cont</t>
-  </si>
-  <si>
-    <t>Carb Flow</t>
   </si>
   <si>
     <t>Density</t>
@@ -94,31 +67,7 @@
     <t>Balling</t>
   </si>
   <si>
-    <t>Pressure Vacuum</t>
-  </si>
-  <si>
     <t>PH</t>
-  </si>
-  <si>
-    <t>Oxygen Filler</t>
-  </si>
-  <si>
-    <t>Bowl Setpoint</t>
-  </si>
-  <si>
-    <t>Pressure Setpoint</t>
-  </si>
-  <si>
-    <t>Air Pressurer</t>
-  </si>
-  <si>
-    <t>Alch Rel</t>
-  </si>
-  <si>
-    <t>Carb Rel</t>
-  </si>
-  <si>
-    <t>Balling Lvl</t>
   </si>
   <si>
     <t>D</t>
@@ -131,6 +80,57 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>FillPressure</t>
+  </si>
+  <si>
+    <t>HydPressure1</t>
+  </si>
+  <si>
+    <t>HydPressure2</t>
+  </si>
+  <si>
+    <t>HydPressure3</t>
+  </si>
+  <si>
+    <t>HydPressure4</t>
+  </si>
+  <si>
+    <t>FillerLevel</t>
+  </si>
+  <si>
+    <t>FillerSpeed</t>
+  </si>
+  <si>
+    <t>Usagecont</t>
+  </si>
+  <si>
+    <t>CarbFlow</t>
+  </si>
+  <si>
+    <t>PressureVacuum</t>
+  </si>
+  <si>
+    <t>OxygenFiller</t>
+  </si>
+  <si>
+    <t>BowlSetpoint</t>
+  </si>
+  <si>
+    <t>PressureSetpoint</t>
+  </si>
+  <si>
+    <t>AirPressurer</t>
+  </si>
+  <si>
+    <t>AlchRel</t>
+  </si>
+  <si>
+    <t>CarbRel</t>
+  </si>
+  <si>
+    <t>BallingLvl</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -683,75 +683,75 @@
         <v>10</v>
       </c>
       <c r="L1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="T1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>25</v>
-      </c>
       <c r="AA1" s="33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AB1" s="33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AC1" s="33" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AG1" s="33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>5.48</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>5.39333333333333</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>5.2933333333333303</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>5.2666666666666702</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5.4066666666666698</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>5.2866666666666697</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>5.48</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>5.42</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>5.4066666666666698</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>5.4733333333333301</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>5.18</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>5.26</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>5.3</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>5.3066666666666702</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>5.2733333333333299</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>5.34</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>5.2666666666666702</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
         <v>5.5066666666666704</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>5.32</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1">
         <v>5.2733333333333299</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1">
         <v>5.5333333333333297</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
         <v>5.4266666666666703</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>5.4066666666666698</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1">
         <v>5.4533333333333296</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
         <v>5.2666666666666702</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1">
         <v>5.2533333333333303</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1">
         <v>5.5</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1">
         <v>5.48</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1">
         <v>5.4866666666666699</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1">
         <v>5.4666666666666703</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1">
         <v>5.46</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1">
         <v>5.32</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1">
         <v>5.3133333333333299</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1">
         <v>5.2666666666666702</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1">
         <v>5.4866666666666699</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1">
         <v>5.46</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1">
         <v>5.44</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1">
         <v>5.48</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1">
         <v>5.4733333333333301</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B42" s="1">
         <v>5.5266666666666699</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1">
         <v>5.38</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1">
         <v>5.3133333333333299</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1">
         <v>5.3466666666666702</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1">
         <v>5.3666666666666698</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1">
         <v>5.5466666666666704</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B48" s="1">
         <v>5.5266666666666699</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1">
         <v>5.32</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1">
         <v>5.42</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1">
         <v>5.38</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1">
         <v>5.5466666666666704</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B53" s="1">
         <v>5.3133333333333299</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B54" s="1">
         <v>5.3866666666666703</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1">
         <v>5.2666666666666702</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1">
         <v>5.2866666666666697</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B57" s="1">
         <v>5.5133333333333301</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1">
         <v>5.2266666666666701</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B59" s="1">
         <v>5.38</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B60" s="1">
         <v>5.34</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B61" s="1">
         <v>5.3466666666666702</v>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B62" s="1">
         <v>5.3333333333333304</v>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B63" s="1">
         <v>5.28</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B64" s="1">
         <v>5.49</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B65" s="1">
         <v>5.24</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B66" s="1">
         <v>5.3066666666666702</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B67" s="1">
         <v>5.3266666666666698</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B68" s="1">
         <v>5.3</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B69" s="1">
         <v>5.3266666666666698</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B70" s="1">
         <v>5.2933333333333303</v>
@@ -7426,7 +7426,7 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B71" s="1">
         <v>5.16</v>
@@ -7524,7 +7524,7 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B72" s="1">
         <v>5.26</v>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B73" s="1">
         <v>5.2133333333333303</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B74" s="1">
         <v>5.4133333333333304</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B75" s="1">
         <v>5.5</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B76" s="1">
         <v>5.4133333333333304</v>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B77" s="1">
         <v>5.34</v>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B78" s="1">
         <v>5.5333333333333297</v>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B79" s="1">
         <v>5.26</v>
@@ -8305,7 +8305,7 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B80" s="1">
         <v>5.4666666666666703</v>
@@ -8403,7 +8403,7 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B81" s="1">
         <v>5.4866666666666699</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1">
         <v>5.24</v>
@@ -8599,7 +8599,7 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B83" s="1">
         <v>5.26</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B84" s="1">
         <v>5.2133333333333303</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B85" s="1">
         <v>5.2</v>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B86" s="1">
         <v>5.2266666666666701</v>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B87" s="1">
         <v>5.2733333333333299</v>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B88" s="1">
         <v>5.5066666666666704</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B89" s="1">
         <v>5.2666666666666702</v>
@@ -9270,7 +9270,7 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B90" s="1">
         <v>5.3266666666666698</v>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B91" s="1">
         <v>5.2533333333333303</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B92" s="1">
         <v>5.34</v>
@@ -9561,7 +9561,7 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B93" s="1">
         <v>5.66</v>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B94" s="1">
         <v>5.3666666666666698</v>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B95" s="1">
         <v>5.46</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B96" s="1">
         <v>5.54</v>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B97" s="1">
         <v>5.3466666666666702</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B98" s="1">
         <v>5.4866666666666699</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B99" s="1">
         <v>5.2866666666666697</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B100" s="1">
         <v>5.4266666666666703</v>
@@ -10288,7 +10288,7 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B101" s="1">
         <v>5.4066666666666698</v>
@@ -10386,7 +10386,7 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B102" s="1">
         <v>5.4266666666666703</v>
@@ -10481,7 +10481,7 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B103" s="1">
         <v>5.4466666666666699</v>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B104" s="1">
         <v>5.2933333333333303</v>
@@ -10677,7 +10677,7 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B105" s="1">
         <v>5.3666666666666698</v>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B106" s="1">
         <v>5.36</v>
@@ -10873,7 +10873,7 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B107" s="1">
         <v>5.34</v>
@@ -10971,7 +10971,7 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B108" s="1">
         <v>5.22</v>
@@ -11069,7 +11069,7 @@
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B109" s="1">
         <v>5.1866666666666701</v>
@@ -11167,7 +11167,7 @@
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B110" s="1">
         <v>5.2866666666666697</v>
@@ -11265,7 +11265,7 @@
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B111" s="1">
         <v>5.2133333333333303</v>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B112" s="1">
         <v>5.2866666666666697</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B113" s="1">
         <v>5.28</v>
@@ -11556,7 +11556,7 @@
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B114" s="1">
         <v>5.5133333333333301</v>
@@ -11654,7 +11654,7 @@
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B115" s="1">
         <v>5.4933333333333296</v>
@@ -11752,7 +11752,7 @@
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B116" s="1">
         <v>5.26</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B117" s="1">
         <v>5.2666666666666702</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B118" s="1">
         <v>5.28</v>
@@ -12040,7 +12040,7 @@
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B119" s="1">
         <v>5.4866666666666699</v>
@@ -12135,7 +12135,7 @@
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B120" s="1">
         <v>5.34</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B121" s="1">
         <v>5.2933333333333303</v>
@@ -12331,7 +12331,7 @@
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B122" s="1">
         <v>5.26</v>
@@ -12426,7 +12426,7 @@
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B123" s="1">
         <v>5.2533333333333303</v>
@@ -12524,7 +12524,7 @@
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B124" s="1">
         <v>5.2733333333333299</v>
@@ -12622,7 +12622,7 @@
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B125" s="1">
         <v>5.24</v>
@@ -12720,7 +12720,7 @@
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B126" s="1">
         <v>5.38</v>
@@ -12818,7 +12818,7 @@
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B127" s="1">
         <v>5.4533333333333296</v>
@@ -13011,7 +13011,7 @@
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B129" s="1">
         <v>5.3133333333333299</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B130" s="1">
         <v>5.5466666666666704</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B131" s="1">
         <v>5.44</v>
@@ -13302,7 +13302,7 @@
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B132" s="1">
         <v>5.3333333333333304</v>
@@ -13397,7 +13397,7 @@
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B133" s="1">
         <v>5.3333333333333304</v>
@@ -13492,7 +13492,7 @@
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B134" s="1">
         <v>5.5333333333333297</v>
@@ -13587,7 +13587,7 @@
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C135" s="2">
         <v>23.946666666666701</v>
@@ -13679,7 +13679,7 @@
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B136" s="1">
         <v>5.4666666666666703</v>
@@ -13777,7 +13777,7 @@
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B137" s="1">
         <v>5.4533333333333296</v>
@@ -13875,7 +13875,7 @@
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B138" s="1">
         <v>5.4733333333333301</v>
@@ -13967,7 +13967,7 @@
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B139" s="1">
         <v>5.4933333333333296</v>
@@ -14062,7 +14062,7 @@
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B140" s="1">
         <v>5.44</v>
@@ -14157,7 +14157,7 @@
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B141" s="1">
         <v>5.4666666666666703</v>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B142" s="1">
         <v>5.28</v>
@@ -14350,7 +14350,7 @@
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B143" s="1">
         <v>5.3133333333333299</v>
@@ -14448,7 +14448,7 @@
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B144" s="1">
         <v>5.3266666666666698</v>
@@ -14546,7 +14546,7 @@
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B145" s="1">
         <v>5.2866666666666697</v>
@@ -14641,7 +14641,7 @@
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B146" s="1">
         <v>5.4266666666666703</v>
@@ -14739,7 +14739,7 @@
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B147" s="1">
         <v>5.4</v>
@@ -14837,7 +14837,7 @@
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B148" s="1">
         <v>5.4133333333333304</v>
@@ -14935,7 +14935,7 @@
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B149" s="1">
         <v>5.3066666666666702</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B150" s="1">
         <v>5.3333333333333304</v>
@@ -15128,7 +15128,7 @@
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B151" s="1">
         <v>5.3133333333333299</v>
@@ -15226,7 +15226,7 @@
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B152" s="1">
         <v>5.3133333333333299</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B153" s="1">
         <v>5.2866666666666697</v>
@@ -15422,7 +15422,7 @@
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B154" s="1">
         <v>5.3466666666666702</v>
@@ -15520,7 +15520,7 @@
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B155" s="1">
         <v>5.2333333333333298</v>
@@ -15618,7 +15618,7 @@
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B156" s="1">
         <v>5.1733333333333302</v>
@@ -15716,7 +15716,7 @@
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B157" s="1">
         <v>5.3066666666666702</v>
@@ -15814,7 +15814,7 @@
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B158" s="1">
         <v>5.2933333333333303</v>
@@ -15912,7 +15912,7 @@
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B159" s="1">
         <v>5.3466666666666702</v>
@@ -16010,7 +16010,7 @@
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B160" s="1">
         <v>5.3333333333333304</v>
@@ -16108,7 +16108,7 @@
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B161" s="1">
         <v>5.3066666666666702</v>
@@ -16206,7 +16206,7 @@
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B162" s="1">
         <v>5.2666666666666702</v>
@@ -16301,7 +16301,7 @@
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B163" s="1">
         <v>5.5466666666666704</v>
@@ -16396,7 +16396,7 @@
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B164" s="1">
         <v>5.3</v>
@@ -16494,7 +16494,7 @@
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B165" s="1">
         <v>5.3333333333333304</v>
@@ -16592,7 +16592,7 @@
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B166" s="1">
         <v>5.32</v>
@@ -16690,7 +16690,7 @@
     </row>
     <row r="167" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B167" s="1">
         <v>5.3066666666666702</v>
@@ -16880,7 +16880,7 @@
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B169" s="1">
         <v>5.5733333333333297</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="170" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B170" s="1">
         <v>5.5266666666666699</v>
@@ -17076,7 +17076,7 @@
     </row>
     <row r="171" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B171" s="1">
         <v>5.4666666666666703</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="172" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B172" s="1">
         <v>5.3533333333333299</v>
@@ -17269,7 +17269,7 @@
     </row>
     <row r="173" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B173" s="1">
         <v>5.3</v>
@@ -17364,7 +17364,7 @@
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B174" s="1">
         <v>5.36</v>
@@ -17462,7 +17462,7 @@
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B175" s="1">
         <v>5.28</v>
@@ -17560,7 +17560,7 @@
     </row>
     <row r="176" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B176" s="1">
         <v>5.3533333333333299</v>
@@ -17658,7 +17658,7 @@
     </row>
     <row r="177" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B177" s="1">
         <v>5.3266666666666698</v>
@@ -17756,7 +17756,7 @@
     </row>
     <row r="178" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B178" s="1">
         <v>5.3</v>
@@ -17854,7 +17854,7 @@
     </row>
     <row r="179" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B179" s="1">
         <v>5.2933333333333303</v>
@@ -17952,7 +17952,7 @@
     </row>
     <row r="180" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B180" s="1">
         <v>5.4733333333333301</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="181" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B181" s="1">
         <v>5.2933333333333303</v>
@@ -18145,7 +18145,7 @@
     </row>
     <row r="182" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B182" s="1">
         <v>5.32</v>
@@ -18243,7 +18243,7 @@
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B183" s="1">
         <v>5.48</v>
@@ -18341,7 +18341,7 @@
     </row>
     <row r="184" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B184" s="1">
         <v>5.3133333333333299</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="185" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B185" s="1">
         <v>5.24</v>
@@ -18537,7 +18537,7 @@
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B186" s="1">
         <v>5.26</v>
@@ -18632,7 +18632,7 @@
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B187" s="1">
         <v>5.32</v>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B188" s="1">
         <v>5.2866666666666697</v>
@@ -18828,7 +18828,7 @@
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B189" s="1">
         <v>5.5266666666666699</v>
@@ -18926,7 +18926,7 @@
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B190" s="1">
         <v>5.2666666666666702</v>
@@ -19024,7 +19024,7 @@
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B191" s="1">
         <v>5.43333333333333</v>
@@ -19122,7 +19122,7 @@
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B192" s="1">
         <v>5.44</v>
@@ -19220,7 +19220,7 @@
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B193" s="1">
         <v>5.39333333333333</v>
@@ -19318,7 +19318,7 @@
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B194" s="1">
         <v>5.39333333333333</v>
@@ -19416,7 +19416,7 @@
     </row>
     <row r="195" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B195" s="1">
         <v>5.5</v>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="196" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B196" s="1">
         <v>5.54</v>
@@ -19609,7 +19609,7 @@
     </row>
     <row r="197" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B197" s="1">
         <v>5.46</v>
@@ -19707,7 +19707,7 @@
     </row>
     <row r="198" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B198" s="1">
         <v>5.4666666666666703</v>
@@ -19805,7 +19805,7 @@
     </row>
     <row r="199" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B199" s="1">
         <v>5.4533333333333296</v>
@@ -19903,7 +19903,7 @@
     </row>
     <row r="200" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B200" s="1">
         <v>5.1466666666666701</v>
@@ -20001,7 +20001,7 @@
     </row>
     <row r="201" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B201" s="1">
         <v>5.34</v>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="202" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B202" s="1">
         <v>5.4733333333333301</v>
@@ -20197,7 +20197,7 @@
     </row>
     <row r="203" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B203" s="1">
         <v>5.5533333333333301</v>
@@ -20295,7 +20295,7 @@
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B204" s="1">
         <v>5.2866666666666697</v>
@@ -20390,7 +20390,7 @@
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B205" s="1">
         <v>5.3466666666666702</v>
@@ -20488,7 +20488,7 @@
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B206" s="1">
         <v>5.3666666666666698</v>
@@ -20586,7 +20586,7 @@
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B207" s="1">
         <v>5.5533333333333301</v>
@@ -20684,7 +20684,7 @@
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B208" s="1">
         <v>5.56666666666667</v>
@@ -20782,7 +20782,7 @@
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B209" s="1">
         <v>5.2133333333333303</v>
@@ -21067,7 +21067,7 @@
     </row>
     <row r="212" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B212" s="1">
         <v>5.4066666666666698</v>
@@ -21165,7 +21165,7 @@
     </row>
     <row r="213" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B213" s="1">
         <v>5.43333333333333</v>
@@ -21263,7 +21263,7 @@
     </row>
     <row r="214" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B214" s="1">
         <v>5.36</v>
@@ -21361,7 +21361,7 @@
     </row>
     <row r="215" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B215" s="1">
         <v>5.2866666666666697</v>
@@ -21459,7 +21459,7 @@
     </row>
     <row r="216" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B216" s="1">
         <v>5.5466666666666704</v>
@@ -21557,7 +21557,7 @@
     </row>
     <row r="217" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B217" s="1">
         <v>5.36</v>
@@ -21655,7 +21655,7 @@
     </row>
     <row r="218" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B218" s="1">
         <v>5.1933333333333298</v>
@@ -21753,7 +21753,7 @@
     </row>
     <row r="219" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B219" s="1">
         <v>5.24</v>
@@ -21851,7 +21851,7 @@
     </row>
     <row r="220" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B220" s="1">
         <v>5.52</v>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="221" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B221" s="1">
         <v>5.5533333333333301</v>
@@ -22047,7 +22047,7 @@
     </row>
     <row r="222" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B222" s="1">
         <v>5.2533333333333303</v>
@@ -22145,7 +22145,7 @@
     </row>
     <row r="223" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B223" s="1">
         <v>5.3066666666666702</v>
@@ -22243,7 +22243,7 @@
     </row>
     <row r="224" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B224" s="1">
         <v>5.32</v>
@@ -22341,7 +22341,7 @@
     </row>
     <row r="225" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B225" s="1">
         <v>5.47</v>
@@ -22439,7 +22439,7 @@
     </row>
     <row r="226" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B226" s="1">
         <v>5.5</v>
@@ -22537,7 +22537,7 @@
     </row>
     <row r="227" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B227" s="1">
         <v>5.43333333333333</v>
@@ -22635,7 +22635,7 @@
     </row>
     <row r="228" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B228" s="1">
         <v>5.3333333333333304</v>
@@ -22727,7 +22727,7 @@
     </row>
     <row r="229" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B229" s="1">
         <v>5.36</v>
@@ -22825,7 +22825,7 @@
     </row>
     <row r="230" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B230" s="1">
         <v>5.28</v>
@@ -22923,7 +22923,7 @@
     </row>
     <row r="231" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B231" s="1">
         <v>5.3133333333333299</v>
@@ -23021,7 +23021,7 @@
     </row>
     <row r="232" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B232" s="1">
         <v>5.24</v>
@@ -23119,7 +23119,7 @@
     </row>
     <row r="233" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B233" s="1">
         <v>5.2</v>
@@ -23214,7 +23214,7 @@
     </row>
     <row r="234" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B234" s="1">
         <v>5.2733333333333299</v>
@@ -23312,7 +23312,7 @@
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B235" s="1">
         <v>5.6333333333333302</v>
@@ -23410,7 +23410,7 @@
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B236" s="1">
         <v>5.5933333333333302</v>
@@ -23603,7 +23603,7 @@
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B238" s="1">
         <v>5.3466666666666702</v>
@@ -23701,7 +23701,7 @@
     </row>
     <row r="239" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B239" s="1">
         <v>5.2466666666666697</v>
@@ -23799,7 +23799,7 @@
     </row>
     <row r="240" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B240" s="1">
         <v>5.42</v>
@@ -23897,7 +23897,7 @@
     </row>
     <row r="241" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B241" s="1">
         <v>5.36</v>
@@ -23995,7 +23995,7 @@
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B242" s="1">
         <v>5.39333333333333</v>
@@ -24093,7 +24093,7 @@
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B243" s="1">
         <v>5.5866666666666696</v>
@@ -24191,7 +24191,7 @@
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B244" s="1">
         <v>5.58</v>
@@ -24286,7 +24286,7 @@
     </row>
     <row r="245" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B245" s="1">
         <v>5.48</v>
@@ -24384,7 +24384,7 @@
     </row>
     <row r="246" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B246" s="1">
         <v>5.24</v>
@@ -24482,7 +24482,7 @@
     </row>
     <row r="247" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B247" s="1">
         <v>5.34</v>
@@ -24580,7 +24580,7 @@
     </row>
     <row r="248" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B248" s="1">
         <v>5.3733333333333304</v>
@@ -24678,7 +24678,7 @@
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B249" s="1">
         <v>5.6</v>
@@ -24776,7 +24776,7 @@
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B250" s="1">
         <v>5.6666666666666696</v>
@@ -24868,7 +24868,7 @@
     </row>
     <row r="251" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B251" s="1">
         <v>5.2466666666666697</v>
@@ -24966,7 +24966,7 @@
     </row>
     <row r="252" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B252" s="1">
         <v>5.39333333333333</v>
@@ -25061,7 +25061,7 @@
     </row>
     <row r="253" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B253" s="1">
         <v>5.2133333333333303</v>
@@ -25159,7 +25159,7 @@
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B254" s="1">
         <v>5.26</v>
@@ -25251,7 +25251,7 @@
     </row>
     <row r="255" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B255" s="1">
         <v>5.5266666666666699</v>
@@ -25349,7 +25349,7 @@
     </row>
     <row r="256" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B256" s="1">
         <v>5.58</v>
@@ -25616,7 +25616,7 @@
     </row>
     <row r="259" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B259" s="1">
         <v>5.5</v>
@@ -25714,7 +25714,7 @@
     </row>
     <row r="260" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B260" s="1">
         <v>5.16</v>
@@ -25812,7 +25812,7 @@
     </row>
     <row r="261" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B261" s="1">
         <v>5.2866666666666697</v>
@@ -25910,7 +25910,7 @@
     </row>
     <row r="262" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B262" s="1">
         <v>5.58</v>
@@ -26008,7 +26008,7 @@
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B263" s="1">
         <v>5.5066666666666704</v>
@@ -26106,7 +26106,7 @@
     </row>
     <row r="264" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B264" s="1">
         <v>5.3866666666666703</v>
@@ -26204,7 +26204,7 @@
     </row>
     <row r="265" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B265" s="1">
         <v>5.5733333333333297</v>
@@ -26302,7 +26302,7 @@
     </row>
     <row r="266" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B266" s="1">
         <v>5.42</v>
@@ -26400,7 +26400,7 @@
     </row>
     <row r="267" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B267" s="1">
         <v>5.2533333333333303</v>
@@ -26498,7 +26498,7 @@
     </row>
     <row r="268" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B268" s="1">
         <v>5.22</v>

--- a/Project2/StudentEvaluation.xlsx
+++ b/Project2/StudentEvaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMERO\Documents\GitHub\DATA624\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffrey Nieman\Documents\CUNY\Data 624\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EA61DD-10CA-4EE2-92C5-A5A81444DCAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7253741B-C378-45FE-AE94-C02BE45F3208}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subset (2)" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,34 @@
     <t>Carb Pressure1</t>
   </si>
   <si>
+    <t>Fill Pressure</t>
+  </si>
+  <si>
+    <t>Hyd Pressure1</t>
+  </si>
+  <si>
+    <t>Hyd Pressure2</t>
+  </si>
+  <si>
+    <t>Hyd Pressure3</t>
+  </si>
+  <si>
+    <t>Hyd Pressure4</t>
+  </si>
+  <si>
+    <t>Filler Level</t>
+  </si>
+  <si>
+    <t>Filler Speed</t>
+  </si>
+  <si>
     <t>Temperature</t>
+  </si>
+  <si>
+    <t>Usage cont</t>
+  </si>
+  <si>
+    <t>Carb Flow</t>
   </si>
   <si>
     <t>Density</t>
@@ -67,7 +94,31 @@
     <t>Balling</t>
   </si>
   <si>
+    <t>Pressure Vacuum</t>
+  </si>
+  <si>
     <t>PH</t>
+  </si>
+  <si>
+    <t>Oxygen Filler</t>
+  </si>
+  <si>
+    <t>Bowl Setpoint</t>
+  </si>
+  <si>
+    <t>Pressure Setpoint</t>
+  </si>
+  <si>
+    <t>Air Pressurer</t>
+  </si>
+  <si>
+    <t>Alch Rel</t>
+  </si>
+  <si>
+    <t>Carb Rel</t>
+  </si>
+  <si>
+    <t>Balling Lvl</t>
   </si>
   <si>
     <t>D</t>
@@ -80,57 +131,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>FillPressure</t>
-  </si>
-  <si>
-    <t>HydPressure1</t>
-  </si>
-  <si>
-    <t>HydPressure2</t>
-  </si>
-  <si>
-    <t>HydPressure3</t>
-  </si>
-  <si>
-    <t>HydPressure4</t>
-  </si>
-  <si>
-    <t>FillerLevel</t>
-  </si>
-  <si>
-    <t>FillerSpeed</t>
-  </si>
-  <si>
-    <t>Usagecont</t>
-  </si>
-  <si>
-    <t>CarbFlow</t>
-  </si>
-  <si>
-    <t>PressureVacuum</t>
-  </si>
-  <si>
-    <t>OxygenFiller</t>
-  </si>
-  <si>
-    <t>BowlSetpoint</t>
-  </si>
-  <si>
-    <t>PressureSetpoint</t>
-  </si>
-  <si>
-    <t>AirPressurer</t>
-  </si>
-  <si>
-    <t>AlchRel</t>
-  </si>
-  <si>
-    <t>CarbRel</t>
-  </si>
-  <si>
-    <t>BallingLvl</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -683,75 +683,75 @@
         <v>10</v>
       </c>
       <c r="L1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="33" t="s">
+      <c r="AB1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="33" t="s">
+      <c r="AD1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AE1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AF1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AG1" s="33" t="s">
         <v>32</v>
-      </c>
-      <c r="AD1" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG1" s="33" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>5.48</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>5.39333333333333</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>5.2933333333333303</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>5.2666666666666702</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1">
         <v>5.4066666666666698</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1">
         <v>5.2866666666666697</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1">
         <v>5.48</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>5.42</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1">
         <v>5.4066666666666698</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
         <v>5.4733333333333301</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
         <v>5.18</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
         <v>5.26</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1">
         <v>5.3</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1">
         <v>5.3066666666666702</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>5.2733333333333299</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>5.34</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>5.2666666666666702</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <v>5.5066666666666704</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
         <v>5.32</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
         <v>5.2733333333333299</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1">
         <v>5.5333333333333297</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
         <v>5.4266666666666703</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1">
         <v>5.4066666666666698</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1">
         <v>5.4533333333333296</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1">
         <v>5.2666666666666702</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>5.2533333333333303</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>5.5</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
         <v>5.48</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1">
         <v>5.4866666666666699</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
         <v>5.4666666666666703</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>5.46</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>5.32</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>5.3133333333333299</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>5.2666666666666702</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>5.4866666666666699</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
         <v>5.46</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1">
         <v>5.44</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1">
         <v>5.48</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1">
         <v>5.4733333333333301</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1">
         <v>5.5266666666666699</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1">
         <v>5.38</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1">
         <v>5.3133333333333299</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1">
         <v>5.3466666666666702</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B46" s="1">
         <v>5.3666666666666698</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1">
         <v>5.5466666666666704</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B48" s="1">
         <v>5.5266666666666699</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B49" s="1">
         <v>5.32</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B50" s="1">
         <v>5.42</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B51" s="1">
         <v>5.38</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B52" s="1">
         <v>5.5466666666666704</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B53" s="1">
         <v>5.3133333333333299</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B54" s="1">
         <v>5.3866666666666703</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B55" s="1">
         <v>5.2666666666666702</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1">
         <v>5.2866666666666697</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B57" s="1">
         <v>5.5133333333333301</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B58" s="1">
         <v>5.2266666666666701</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B59" s="1">
         <v>5.38</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B60" s="1">
         <v>5.34</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B61" s="1">
         <v>5.3466666666666702</v>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B62" s="1">
         <v>5.3333333333333304</v>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B63" s="1">
         <v>5.28</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B64" s="1">
         <v>5.49</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B65" s="1">
         <v>5.24</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B66" s="1">
         <v>5.3066666666666702</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B67" s="1">
         <v>5.3266666666666698</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B68" s="1">
         <v>5.3</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B69" s="1">
         <v>5.3266666666666698</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B70" s="1">
         <v>5.2933333333333303</v>
@@ -7426,7 +7426,7 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B71" s="1">
         <v>5.16</v>
@@ -7524,7 +7524,7 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1">
         <v>5.26</v>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B73" s="1">
         <v>5.2133333333333303</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B74" s="1">
         <v>5.4133333333333304</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B75" s="1">
         <v>5.5</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B76" s="1">
         <v>5.4133333333333304</v>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B77" s="1">
         <v>5.34</v>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B78" s="1">
         <v>5.5333333333333297</v>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B79" s="1">
         <v>5.26</v>
@@ -8305,7 +8305,7 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B80" s="1">
         <v>5.4666666666666703</v>
@@ -8403,7 +8403,7 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B81" s="1">
         <v>5.4866666666666699</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B82" s="1">
         <v>5.24</v>
@@ -8599,7 +8599,7 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B83" s="1">
         <v>5.26</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B84" s="1">
         <v>5.2133333333333303</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B85" s="1">
         <v>5.2</v>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B86" s="1">
         <v>5.2266666666666701</v>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B87" s="1">
         <v>5.2733333333333299</v>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B88" s="1">
         <v>5.5066666666666704</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B89" s="1">
         <v>5.2666666666666702</v>
@@ -9270,7 +9270,7 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B90" s="1">
         <v>5.3266666666666698</v>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B91" s="1">
         <v>5.2533333333333303</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B92" s="1">
         <v>5.34</v>
@@ -9561,7 +9561,7 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B93" s="1">
         <v>5.66</v>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B94" s="1">
         <v>5.3666666666666698</v>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B95" s="1">
         <v>5.46</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B96" s="1">
         <v>5.54</v>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B97" s="1">
         <v>5.3466666666666702</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B98" s="1">
         <v>5.4866666666666699</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B99" s="1">
         <v>5.2866666666666697</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B100" s="1">
         <v>5.4266666666666703</v>
@@ -10288,7 +10288,7 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B101" s="1">
         <v>5.4066666666666698</v>
@@ -10386,7 +10386,7 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B102" s="1">
         <v>5.4266666666666703</v>
@@ -10481,7 +10481,7 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B103" s="1">
         <v>5.4466666666666699</v>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B104" s="1">
         <v>5.2933333333333303</v>
@@ -10677,7 +10677,7 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B105" s="1">
         <v>5.3666666666666698</v>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B106" s="1">
         <v>5.36</v>
@@ -10873,7 +10873,7 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B107" s="1">
         <v>5.34</v>
@@ -10971,7 +10971,7 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B108" s="1">
         <v>5.22</v>
@@ -11069,7 +11069,7 @@
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B109" s="1">
         <v>5.1866666666666701</v>
@@ -11167,7 +11167,7 @@
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B110" s="1">
         <v>5.2866666666666697</v>
@@ -11265,7 +11265,7 @@
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B111" s="1">
         <v>5.2133333333333303</v>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B112" s="1">
         <v>5.2866666666666697</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B113" s="1">
         <v>5.28</v>
@@ -11556,7 +11556,7 @@
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B114" s="1">
         <v>5.5133333333333301</v>
@@ -11654,7 +11654,7 @@
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B115" s="1">
         <v>5.4933333333333296</v>
@@ -11752,7 +11752,7 @@
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B116" s="1">
         <v>5.26</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B117" s="1">
         <v>5.2666666666666702</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B118" s="1">
         <v>5.28</v>
@@ -12040,7 +12040,7 @@
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B119" s="1">
         <v>5.4866666666666699</v>
@@ -12135,7 +12135,7 @@
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B120" s="1">
         <v>5.34</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B121" s="1">
         <v>5.2933333333333303</v>
@@ -12331,7 +12331,7 @@
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B122" s="1">
         <v>5.26</v>
@@ -12426,7 +12426,7 @@
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B123" s="1">
         <v>5.2533333333333303</v>
@@ -12524,7 +12524,7 @@
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B124" s="1">
         <v>5.2733333333333299</v>
@@ -12622,7 +12622,7 @@
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B125" s="1">
         <v>5.24</v>
@@ -12720,7 +12720,7 @@
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B126" s="1">
         <v>5.38</v>
@@ -12818,7 +12818,7 @@
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B127" s="1">
         <v>5.4533333333333296</v>
@@ -13011,7 +13011,7 @@
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B129" s="1">
         <v>5.3133333333333299</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B130" s="1">
         <v>5.5466666666666704</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B131" s="1">
         <v>5.44</v>
@@ -13302,7 +13302,7 @@
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B132" s="1">
         <v>5.3333333333333304</v>
@@ -13397,7 +13397,7 @@
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B133" s="1">
         <v>5.3333333333333304</v>
@@ -13492,7 +13492,7 @@
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B134" s="1">
         <v>5.5333333333333297</v>
@@ -13587,7 +13587,7 @@
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C135" s="2">
         <v>23.946666666666701</v>
@@ -13679,7 +13679,7 @@
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B136" s="1">
         <v>5.4666666666666703</v>
@@ -13777,7 +13777,7 @@
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B137" s="1">
         <v>5.4533333333333296</v>
@@ -13875,7 +13875,7 @@
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B138" s="1">
         <v>5.4733333333333301</v>
@@ -13967,7 +13967,7 @@
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B139" s="1">
         <v>5.4933333333333296</v>
@@ -14062,7 +14062,7 @@
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B140" s="1">
         <v>5.44</v>
@@ -14157,7 +14157,7 @@
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B141" s="1">
         <v>5.4666666666666703</v>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B142" s="1">
         <v>5.28</v>
@@ -14350,7 +14350,7 @@
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B143" s="1">
         <v>5.3133333333333299</v>
@@ -14448,7 +14448,7 @@
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B144" s="1">
         <v>5.3266666666666698</v>
@@ -14546,7 +14546,7 @@
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B145" s="1">
         <v>5.2866666666666697</v>
@@ -14641,7 +14641,7 @@
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B146" s="1">
         <v>5.4266666666666703</v>
@@ -14739,7 +14739,7 @@
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B147" s="1">
         <v>5.4</v>
@@ -14837,7 +14837,7 @@
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B148" s="1">
         <v>5.4133333333333304</v>
@@ -14935,7 +14935,7 @@
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B149" s="1">
         <v>5.3066666666666702</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B150" s="1">
         <v>5.3333333333333304</v>
@@ -15128,7 +15128,7 @@
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B151" s="1">
         <v>5.3133333333333299</v>
@@ -15226,7 +15226,7 @@
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B152" s="1">
         <v>5.3133333333333299</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B153" s="1">
         <v>5.2866666666666697</v>
@@ -15422,7 +15422,7 @@
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B154" s="1">
         <v>5.3466666666666702</v>
@@ -15520,7 +15520,7 @@
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B155" s="1">
         <v>5.2333333333333298</v>
@@ -15618,7 +15618,7 @@
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B156" s="1">
         <v>5.1733333333333302</v>
@@ -15716,7 +15716,7 @@
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B157" s="1">
         <v>5.3066666666666702</v>
@@ -15814,7 +15814,7 @@
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B158" s="1">
         <v>5.2933333333333303</v>
@@ -15912,7 +15912,7 @@
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B159" s="1">
         <v>5.3466666666666702</v>
@@ -16010,7 +16010,7 @@
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B160" s="1">
         <v>5.3333333333333304</v>
@@ -16108,7 +16108,7 @@
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B161" s="1">
         <v>5.3066666666666702</v>
@@ -16206,7 +16206,7 @@
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B162" s="1">
         <v>5.2666666666666702</v>
@@ -16301,7 +16301,7 @@
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B163" s="1">
         <v>5.5466666666666704</v>
@@ -16396,7 +16396,7 @@
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B164" s="1">
         <v>5.3</v>
@@ -16494,7 +16494,7 @@
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B165" s="1">
         <v>5.3333333333333304</v>
@@ -16592,7 +16592,7 @@
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B166" s="1">
         <v>5.32</v>
@@ -16690,7 +16690,7 @@
     </row>
     <row r="167" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B167" s="1">
         <v>5.3066666666666702</v>
@@ -16880,7 +16880,7 @@
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B169" s="1">
         <v>5.5733333333333297</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="170" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B170" s="1">
         <v>5.5266666666666699</v>
@@ -17076,7 +17076,7 @@
     </row>
     <row r="171" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B171" s="1">
         <v>5.4666666666666703</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="172" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B172" s="1">
         <v>5.3533333333333299</v>
@@ -17269,7 +17269,7 @@
     </row>
     <row r="173" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B173" s="1">
         <v>5.3</v>
@@ -17364,7 +17364,7 @@
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B174" s="1">
         <v>5.36</v>
@@ -17462,7 +17462,7 @@
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B175" s="1">
         <v>5.28</v>
@@ -17560,7 +17560,7 @@
     </row>
     <row r="176" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B176" s="1">
         <v>5.3533333333333299</v>
@@ -17658,7 +17658,7 @@
     </row>
     <row r="177" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B177" s="1">
         <v>5.3266666666666698</v>
@@ -17756,7 +17756,7 @@
     </row>
     <row r="178" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B178" s="1">
         <v>5.3</v>
@@ -17854,7 +17854,7 @@
     </row>
     <row r="179" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B179" s="1">
         <v>5.2933333333333303</v>
@@ -17952,7 +17952,7 @@
     </row>
     <row r="180" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B180" s="1">
         <v>5.4733333333333301</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="181" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B181" s="1">
         <v>5.2933333333333303</v>
@@ -18145,7 +18145,7 @@
     </row>
     <row r="182" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B182" s="1">
         <v>5.32</v>
@@ -18243,7 +18243,7 @@
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B183" s="1">
         <v>5.48</v>
@@ -18341,7 +18341,7 @@
     </row>
     <row r="184" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B184" s="1">
         <v>5.3133333333333299</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="185" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B185" s="1">
         <v>5.24</v>
@@ -18537,7 +18537,7 @@
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B186" s="1">
         <v>5.26</v>
@@ -18632,7 +18632,7 @@
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B187" s="1">
         <v>5.32</v>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B188" s="1">
         <v>5.2866666666666697</v>
@@ -18828,7 +18828,7 @@
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B189" s="1">
         <v>5.5266666666666699</v>
@@ -18926,7 +18926,7 @@
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B190" s="1">
         <v>5.2666666666666702</v>
@@ -19024,7 +19024,7 @@
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B191" s="1">
         <v>5.43333333333333</v>
@@ -19122,7 +19122,7 @@
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B192" s="1">
         <v>5.44</v>
@@ -19220,7 +19220,7 @@
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B193" s="1">
         <v>5.39333333333333</v>
@@ -19318,7 +19318,7 @@
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B194" s="1">
         <v>5.39333333333333</v>
@@ -19416,7 +19416,7 @@
     </row>
     <row r="195" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B195" s="1">
         <v>5.5</v>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="196" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B196" s="1">
         <v>5.54</v>
@@ -19609,7 +19609,7 @@
     </row>
     <row r="197" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B197" s="1">
         <v>5.46</v>
@@ -19707,7 +19707,7 @@
     </row>
     <row r="198" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B198" s="1">
         <v>5.4666666666666703</v>
@@ -19805,7 +19805,7 @@
     </row>
     <row r="199" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B199" s="1">
         <v>5.4533333333333296</v>
@@ -19903,7 +19903,7 @@
     </row>
     <row r="200" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B200" s="1">
         <v>5.1466666666666701</v>
@@ -20001,7 +20001,7 @@
     </row>
     <row r="201" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B201" s="1">
         <v>5.34</v>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="202" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B202" s="1">
         <v>5.4733333333333301</v>
@@ -20197,7 +20197,7 @@
     </row>
     <row r="203" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B203" s="1">
         <v>5.5533333333333301</v>
@@ -20295,7 +20295,7 @@
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B204" s="1">
         <v>5.2866666666666697</v>
@@ -20390,7 +20390,7 @@
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B205" s="1">
         <v>5.3466666666666702</v>
@@ -20488,7 +20488,7 @@
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B206" s="1">
         <v>5.3666666666666698</v>
@@ -20586,7 +20586,7 @@
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B207" s="1">
         <v>5.5533333333333301</v>
@@ -20684,7 +20684,7 @@
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B208" s="1">
         <v>5.56666666666667</v>
@@ -20782,7 +20782,7 @@
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B209" s="1">
         <v>5.2133333333333303</v>
@@ -21067,7 +21067,7 @@
     </row>
     <row r="212" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B212" s="1">
         <v>5.4066666666666698</v>
@@ -21165,7 +21165,7 @@
     </row>
     <row r="213" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B213" s="1">
         <v>5.43333333333333</v>
@@ -21263,7 +21263,7 @@
     </row>
     <row r="214" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B214" s="1">
         <v>5.36</v>
@@ -21361,7 +21361,7 @@
     </row>
     <row r="215" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B215" s="1">
         <v>5.2866666666666697</v>
@@ -21459,7 +21459,7 @@
     </row>
     <row r="216" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B216" s="1">
         <v>5.5466666666666704</v>
@@ -21557,7 +21557,7 @@
     </row>
     <row r="217" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B217" s="1">
         <v>5.36</v>
@@ -21655,7 +21655,7 @@
     </row>
     <row r="218" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B218" s="1">
         <v>5.1933333333333298</v>
@@ -21753,7 +21753,7 @@
     </row>
     <row r="219" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B219" s="1">
         <v>5.24</v>
@@ -21851,7 +21851,7 @@
     </row>
     <row r="220" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B220" s="1">
         <v>5.52</v>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="221" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B221" s="1">
         <v>5.5533333333333301</v>
@@ -22047,7 +22047,7 @@
     </row>
     <row r="222" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B222" s="1">
         <v>5.2533333333333303</v>
@@ -22145,7 +22145,7 @@
     </row>
     <row r="223" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B223" s="1">
         <v>5.3066666666666702</v>
@@ -22243,7 +22243,7 @@
     </row>
     <row r="224" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B224" s="1">
         <v>5.32</v>
@@ -22341,7 +22341,7 @@
     </row>
     <row r="225" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B225" s="1">
         <v>5.47</v>
@@ -22439,7 +22439,7 @@
     </row>
     <row r="226" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B226" s="1">
         <v>5.5</v>
@@ -22537,7 +22537,7 @@
     </row>
     <row r="227" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B227" s="1">
         <v>5.43333333333333</v>
@@ -22635,7 +22635,7 @@
     </row>
     <row r="228" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B228" s="1">
         <v>5.3333333333333304</v>
@@ -22727,7 +22727,7 @@
     </row>
     <row r="229" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B229" s="1">
         <v>5.36</v>
@@ -22825,7 +22825,7 @@
     </row>
     <row r="230" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B230" s="1">
         <v>5.28</v>
@@ -22923,7 +22923,7 @@
     </row>
     <row r="231" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B231" s="1">
         <v>5.3133333333333299</v>
@@ -23021,7 +23021,7 @@
     </row>
     <row r="232" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B232" s="1">
         <v>5.24</v>
@@ -23119,7 +23119,7 @@
     </row>
     <row r="233" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B233" s="1">
         <v>5.2</v>
@@ -23214,7 +23214,7 @@
     </row>
     <row r="234" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B234" s="1">
         <v>5.2733333333333299</v>
@@ -23312,7 +23312,7 @@
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B235" s="1">
         <v>5.6333333333333302</v>
@@ -23410,7 +23410,7 @@
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B236" s="1">
         <v>5.5933333333333302</v>
@@ -23603,7 +23603,7 @@
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B238" s="1">
         <v>5.3466666666666702</v>
@@ -23701,7 +23701,7 @@
     </row>
     <row r="239" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B239" s="1">
         <v>5.2466666666666697</v>
@@ -23799,7 +23799,7 @@
     </row>
     <row r="240" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B240" s="1">
         <v>5.42</v>
@@ -23897,7 +23897,7 @@
     </row>
     <row r="241" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B241" s="1">
         <v>5.36</v>
@@ -23995,7 +23995,7 @@
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B242" s="1">
         <v>5.39333333333333</v>
@@ -24093,7 +24093,7 @@
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B243" s="1">
         <v>5.5866666666666696</v>
@@ -24191,7 +24191,7 @@
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B244" s="1">
         <v>5.58</v>
@@ -24286,7 +24286,7 @@
     </row>
     <row r="245" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B245" s="1">
         <v>5.48</v>
@@ -24384,7 +24384,7 @@
     </row>
     <row r="246" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B246" s="1">
         <v>5.24</v>
@@ -24482,7 +24482,7 @@
     </row>
     <row r="247" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B247" s="1">
         <v>5.34</v>
@@ -24580,7 +24580,7 @@
     </row>
     <row r="248" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B248" s="1">
         <v>5.3733333333333304</v>
@@ -24678,7 +24678,7 @@
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B249" s="1">
         <v>5.6</v>
@@ -24776,7 +24776,7 @@
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B250" s="1">
         <v>5.6666666666666696</v>
@@ -24868,7 +24868,7 @@
     </row>
     <row r="251" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B251" s="1">
         <v>5.2466666666666697</v>
@@ -24966,7 +24966,7 @@
     </row>
     <row r="252" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B252" s="1">
         <v>5.39333333333333</v>
@@ -25061,7 +25061,7 @@
     </row>
     <row r="253" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B253" s="1">
         <v>5.2133333333333303</v>
@@ -25159,7 +25159,7 @@
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B254" s="1">
         <v>5.26</v>
@@ -25251,7 +25251,7 @@
     </row>
     <row r="255" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B255" s="1">
         <v>5.5266666666666699</v>
@@ -25349,7 +25349,7 @@
     </row>
     <row r="256" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B256" s="1">
         <v>5.58</v>
@@ -25616,7 +25616,7 @@
     </row>
     <row r="259" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B259" s="1">
         <v>5.5</v>
@@ -25714,7 +25714,7 @@
     </row>
     <row r="260" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B260" s="1">
         <v>5.16</v>
@@ -25812,7 +25812,7 @@
     </row>
     <row r="261" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B261" s="1">
         <v>5.2866666666666697</v>
@@ -25910,7 +25910,7 @@
     </row>
     <row r="262" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B262" s="1">
         <v>5.58</v>
@@ -26008,7 +26008,7 @@
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B263" s="1">
         <v>5.5066666666666704</v>
@@ -26106,7 +26106,7 @@
     </row>
     <row r="264" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B264" s="1">
         <v>5.3866666666666703</v>
@@ -26204,7 +26204,7 @@
     </row>
     <row r="265" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B265" s="1">
         <v>5.5733333333333297</v>
@@ -26302,7 +26302,7 @@
     </row>
     <row r="266" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B266" s="1">
         <v>5.42</v>
@@ -26400,7 +26400,7 @@
     </row>
     <row r="267" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B267" s="1">
         <v>5.2533333333333303</v>
@@ -26498,7 +26498,7 @@
     </row>
     <row r="268" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B268" s="1">
         <v>5.22</v>
